--- a/FC.xlsx
+++ b/FC.xlsx
@@ -74,10 +74,10 @@
     <t>TYPE_TP</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>18:0</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>15:45</t>
@@ -1001,14 +1001,14 @@
         <v>8</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E88" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F88" s="0"/>
       <c r="G88" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s" s="0">
         <v>19</v>
@@ -1026,14 +1026,14 @@
         <v>8</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E89" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F89" s="0"/>
       <c r="G89" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H89" t="s" s="0">
         <v>19</v>
@@ -1051,14 +1051,14 @@
         <v>8</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E90" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F90" s="0"/>
       <c r="G90" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s" s="0">
         <v>19</v>

--- a/FC.xlsx
+++ b/FC.xlsx
@@ -12,11 +12,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>Sécurité - C (KRTA9AA3)</t>
+  </si>
+  <si>
+    <t>KRTA9AA3</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>TYPE_COURS</t>
+  </si>
+  <si>
+    <t>7:45</t>
+  </si>
+  <si>
+    <t>Sécurité - TP (KRTA9AA3) (FC)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TYPE_TP</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>jeudi</t>
   </si>
   <si>
@@ -26,24 +59,9 @@
     <t>KRTA9AD1</t>
   </si>
   <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>TYPE_COURS</t>
-  </si>
-  <si>
     <t>vendredi</t>
   </si>
   <si>
-    <t>7:45</t>
-  </si>
-  <si>
-    <t>lundi</t>
-  </si>
-  <si>
     <t>Législation - TD (KRTA9AD1)</t>
   </si>
   <si>
@@ -63,15 +81,6 @@
   </si>
   <si>
     <t>13:30</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TYPE_TP</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>18:0</t>
@@ -133,7 +142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -144,12 +153,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45932.0</v>
+        <v>45908.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -183,15 +192,15 @@
         <v>0</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>45940.0</v>
+        <v>45915.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -205,7 +214,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>2.0</v>
@@ -245,12 +254,12 @@
         <v>0</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>45953.0</v>
+        <v>45922.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>1</v>
@@ -258,7 +267,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>3</v>
@@ -267,63 +276,67 @@
         <v>4</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
+      <c r="G10" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="H10" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>44.0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I11" s="0"/>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="1">
-        <v>45957.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>9</v>
+      <c r="A12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>40.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>10</v>
+      <c r="A13" t="n" s="1">
+        <v>45932.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E13" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="I13" s="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>4</v>
@@ -337,55 +350,55 @@
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="1">
-        <v>45958.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>12</v>
+      <c r="A15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>41.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>10</v>
+      <c r="A16" t="n" s="1">
+        <v>45940.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E16" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="I16" s="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="n" s="1">
-        <v>45961.0</v>
+      <c r="A17" t="s" s="0">
+        <v>13</v>
       </c>
       <c r="B17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="E17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>4</v>
@@ -399,7 +412,7 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I18" s="0"/>
     </row>
@@ -408,15 +421,15 @@
         <v>0</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>49.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="1">
-        <v>45995.0</v>
+        <v>45953.0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -430,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n" s="0">
         <v>2.0</v>
@@ -444,57 +457,23 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E22" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F22" s="0"/>
-      <c r="G22" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I22" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>44.0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>15</v>
+      <c r="A23" t="n" s="1">
+        <v>45957.0</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E23" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F23" s="0"/>
-      <c r="G23" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I23" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>14</v>
@@ -503,87 +482,83 @@
         <v>4</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F24" s="0"/>
-      <c r="G24" t="s" s="0">
+      <c r="G24" s="0"/>
+      <c r="H24" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H24" t="s" s="0">
+      <c r="I24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="1">
+        <v>45958.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="I24" s="0"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E25" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F25" s="0"/>
-      <c r="G25" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B26" t="n" s="0">
-        <v>50.0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I26" s="0"/>
     </row>
     <row r="27">
-      <c r="A27" t="n" s="1">
-        <v>46002.0</v>
+      <c r="A27" t="s" s="0">
+        <v>16</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I27" s="0"/>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>13</v>
+      <c r="A28" t="n" s="1">
+        <v>45961.0</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E28" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="I28" s="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>14</v>
@@ -600,102 +575,303 @@
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E30" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="I30" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>49.0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B31" t="n" s="0">
-        <v>51.0</v>
+      <c r="A31" t="n" s="1">
+        <v>45995.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n" s="1">
-        <v>46007.0</v>
+      <c r="A32" t="s" s="0">
+        <v>19</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D33" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E33" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F33" s="0"/>
+      <c r="G33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I33" s="0"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E33" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" t="s" s="0">
+      <c r="B34" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="I33" s="0"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="1">
-        <v>46009.0</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>1</v>
-      </c>
+      <c r="E34" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F34" s="0"/>
+      <c r="G34" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="E35" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="0"/>
+      <c r="G35" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I35" s="0"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E36" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F36" s="0"/>
+      <c r="G36" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="1">
+        <v>46002.0</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E39" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I39" s="0"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E40" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="1">
+        <v>46007.0</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="C44" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D35" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E35" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="I35" s="0"/>
+      <c r="E44" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I44" s="0"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="1">
+        <v>46009.0</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I46" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/FC.xlsx
+++ b/FC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="31">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -20,10 +20,10 @@
     <t>lundi</t>
   </si>
   <si>
-    <t>Sécurité - C (KRTA9AA3)</t>
-  </si>
-  <si>
-    <t>KRTA9AA3</t>
+    <t>Sécurité - C (KRTA9AA3/KUPT9BB1)</t>
+  </si>
+  <si>
+    <t>KRTA9AA3/KUPT9BB1</t>
   </si>
   <si>
     <t>FC</t>
@@ -32,13 +32,16 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
     <t>7:45</t>
   </si>
   <si>
-    <t>Sécurité - TP (KRTA9AA3) (FC)</t>
+    <t>Sécurité - TP (KRTA9AA3/KUPT9BB1) (FC)</t>
   </si>
   <si>
     <t>1</t>
@@ -53,16 +56,22 @@
     <t>jeudi</t>
   </si>
   <si>
-    <t>Législation - C (KRTA9AD1)</t>
-  </si>
-  <si>
-    <t>KRTA9AD1</t>
+    <t>Législation - C (KRTA9AD1/KUPT9BA2)</t>
+  </si>
+  <si>
+    <t>KRTA9AD1/KUPT9BA2</t>
   </si>
   <si>
     <t>vendredi</t>
   </si>
   <si>
-    <t>Législation - TD (KRTA9AD1)</t>
+    <t>U3-4</t>
+  </si>
+  <si>
+    <t>Législation - TD (KRTA9AD1/KUPT9BA2)</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
   </si>
   <si>
     <t>TYPE_TD</t>
@@ -180,10 +189,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -214,15 +225,17 @@
         <v>4</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G6" s="0"/>
       <c r="H6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="0"/>
     </row>
@@ -242,10 +255,12 @@
       <c r="E7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="0"/>
     </row>
@@ -267,7 +282,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>3</v>
@@ -276,23 +291,23 @@
         <v>4</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>3</v>
@@ -308,10 +323,10 @@
       </c>
       <c r="F11" s="0"/>
       <c r="G11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>10</v>
       </c>
       <c r="I11" s="0"/>
     </row>
@@ -328,15 +343,15 @@
         <v>45932.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>4</v>
@@ -347,10 +362,12 @@
       <c r="E14" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F14" s="0"/>
+      <c r="F14" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G14" s="0"/>
       <c r="H14" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" s="0"/>
     </row>
@@ -367,38 +384,40 @@
         <v>45940.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F17" s="0"/>
+      <c r="F17" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G17" s="0"/>
       <c r="H17" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>4</v>
@@ -409,10 +428,12 @@
       <c r="E18" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F18" s="0"/>
+      <c r="F18" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G18" s="0"/>
       <c r="H18" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18" s="0"/>
     </row>
@@ -429,29 +450,31 @@
         <v>45953.0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F21" s="0"/>
+      <c r="F21" t="s" s="0">
+        <v>17</v>
+      </c>
       <c r="G21" s="0"/>
       <c r="H21" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21" s="0"/>
     </row>
@@ -473,24 +496,26 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F24" s="0"/>
+      <c r="F24" t="s" s="0">
+        <v>19</v>
+      </c>
       <c r="G24" s="0"/>
       <c r="H24" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I24" s="0"/>
     </row>
@@ -499,38 +524,40 @@
         <v>45958.0</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F26" s="0"/>
+      <c r="F26" t="s" s="0">
+        <v>19</v>
+      </c>
       <c r="G26" s="0"/>
       <c r="H26" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>4</v>
@@ -541,10 +568,12 @@
       <c r="E27" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F27" s="0"/>
+      <c r="F27" t="s" s="0">
+        <v>19</v>
+      </c>
       <c r="G27" s="0"/>
       <c r="H27" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I27" s="0"/>
     </row>
@@ -553,15 +582,15 @@
         <v>45961.0</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>4</v>
@@ -572,10 +601,12 @@
       <c r="E29" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F29" s="0"/>
+      <c r="F29" t="s" s="0">
+        <v>19</v>
+      </c>
       <c r="G29" s="0"/>
       <c r="H29" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I29" s="0"/>
     </row>
@@ -592,15 +623,15 @@
         <v>45995.0</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>4</v>
@@ -611,110 +642,112 @@
       <c r="E32" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F32" s="0"/>
+      <c r="F32" t="s" s="0">
+        <v>19</v>
+      </c>
       <c r="G32" s="0"/>
       <c r="H32" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E33" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E34" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="H34" t="s" s="0">
-        <v>10</v>
       </c>
       <c r="I34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E35" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E36" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="H36" t="s" s="0">
-        <v>10</v>
       </c>
       <c r="I36" s="0"/>
     </row>
@@ -731,38 +764,40 @@
         <v>46002.0</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F39" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E39" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F39" s="0"/>
       <c r="G39" s="0"/>
       <c r="H39" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>4</v>
@@ -773,33 +808,37 @@
       <c r="E40" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F40" s="0"/>
+      <c r="F40" t="s" s="0">
+        <v>19</v>
+      </c>
       <c r="G40" s="0"/>
       <c r="H40" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F41" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B41" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E41" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F41" s="0"/>
       <c r="G41" s="0"/>
       <c r="H41" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I41" s="0"/>
     </row>
@@ -816,29 +855,31 @@
         <v>46007.0</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E44" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F44" s="0"/>
+      <c r="F44" t="s" s="0">
+        <v>19</v>
+      </c>
       <c r="G44" s="0"/>
       <c r="H44" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I44" s="0"/>
     </row>
@@ -847,29 +888,31 @@
         <v>46009.0</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D46" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="E46" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F46" s="0"/>
+      <c r="F46" t="s" s="0">
+        <v>19</v>
+      </c>
       <c r="G46" s="0"/>
       <c r="H46" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I46" s="0"/>
     </row>

--- a/FC.xlsx
+++ b/FC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="32">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -20,10 +20,10 @@
     <t>lundi</t>
   </si>
   <si>
-    <t>Sécurité - C (KRTA9AA3)</t>
-  </si>
-  <si>
-    <t>KRTA9AA3</t>
+    <t>Sécurité - C (KRTA9AA3/KUPT9BB1)</t>
+  </si>
+  <si>
+    <t>KRTA9AA3/KUPT9BB1</t>
   </si>
   <si>
     <t>FC</t>
@@ -32,13 +32,19 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
     <t>7:45</t>
   </si>
   <si>
-    <t>Sécurité - TP (KRTA9AA3) (FC)</t>
+    <t>Sécurité - TP (KRTA9AA3/KUPT9BB1) (FC)</t>
+  </si>
+  <si>
+    <t>U3-307/8</t>
   </si>
   <si>
     <t>1</t>
@@ -50,19 +56,28 @@
     <t>2</t>
   </si>
   <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>Législation - C (KRTA9AD1/KUPT9BA2)</t>
+  </si>
+  <si>
+    <t>KRTA9AD1/KUPT9BA2</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
+  </si>
+  <si>
     <t>jeudi</t>
   </si>
   <si>
-    <t>Législation - C (KRTA9AD1)</t>
-  </si>
-  <si>
-    <t>KRTA9AD1</t>
-  </si>
-  <si>
-    <t>vendredi</t>
-  </si>
-  <si>
-    <t>Législation - TD (KRTA9AD1)</t>
+    <t>U3-4</t>
+  </si>
+  <si>
+    <t>Législation - TD (KRTA9AD1/KUPT9BA2)</t>
   </si>
   <si>
     <t>TYPE_TD</t>
@@ -78,9 +93,6 @@
   </si>
   <si>
     <t>IoT - TP (KRTX9AA3) (FC)</t>
-  </si>
-  <si>
-    <t>13:30</t>
   </si>
   <si>
     <t>18:0</t>
@@ -180,10 +192,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -214,15 +228,17 @@
         <v>4</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G6" s="0"/>
       <c r="H6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="0"/>
     </row>
@@ -242,10 +258,12 @@
       <c r="E7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="0"/>
     </row>
@@ -267,7 +285,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>3</v>
@@ -276,23 +294,25 @@
         <v>4</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F10" s="0"/>
+      <c r="F10" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="G10" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>3</v>
@@ -306,12 +326,14 @@
       <c r="E11" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F11" s="0"/>
+      <c r="F11" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="G11" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" s="0"/>
     </row>
@@ -320,99 +342,105 @@
         <v>0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="1">
-        <v>45932.0</v>
+        <v>45940.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F14" s="0"/>
+      <c r="F14" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G14" s="0"/>
       <c r="H14" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="G15" s="0"/>
+      <c r="H15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B15" t="n" s="0">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="1">
-        <v>45940.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>15</v>
+      <c r="B16" t="n" s="0">
+        <v>42.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>13</v>
+      <c r="A17" t="n" s="1">
+        <v>45947.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E17" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="I17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F18" s="0"/>
+      <c r="F18" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G18" s="0"/>
       <c r="H18" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18" s="0"/>
     </row>
@@ -429,29 +457,31 @@
         <v>45953.0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F21" s="0"/>
+      <c r="F21" t="s" s="0">
+        <v>20</v>
+      </c>
       <c r="G21" s="0"/>
       <c r="H21" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21" s="0"/>
     </row>
@@ -473,24 +503,26 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F24" s="0"/>
+      <c r="F24" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G24" s="0"/>
       <c r="H24" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I24" s="0"/>
     </row>
@@ -499,38 +531,40 @@
         <v>45958.0</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="C26" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F26" s="0"/>
+      <c r="F26" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G26" s="0"/>
       <c r="H26" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>14</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>4</v>
@@ -541,10 +575,12 @@
       <c r="E27" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F27" s="0"/>
+      <c r="F27" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G27" s="0"/>
       <c r="H27" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I27" s="0"/>
     </row>
@@ -553,15 +589,15 @@
         <v>45961.0</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>14</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>4</v>
@@ -572,10 +608,12 @@
       <c r="E29" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F29" s="0"/>
+      <c r="F29" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G29" s="0"/>
       <c r="H29" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I29" s="0"/>
     </row>
@@ -592,15 +630,15 @@
         <v>45995.0</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>4</v>
@@ -611,110 +649,112 @@
       <c r="E32" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F32" s="0"/>
+      <c r="F32" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G32" s="0"/>
       <c r="H32" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E35" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E36" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I36" s="0"/>
     </row>
@@ -731,38 +771,40 @@
         <v>46002.0</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F39" s="0"/>
+      <c r="F39" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G39" s="0"/>
       <c r="H39" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>4</v>
@@ -773,33 +815,37 @@
       <c r="E40" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F40" s="0"/>
+      <c r="F40" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G40" s="0"/>
       <c r="H40" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F41" s="0"/>
+      <c r="F41" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G41" s="0"/>
       <c r="H41" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I41" s="0"/>
     </row>
@@ -816,29 +862,31 @@
         <v>46007.0</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E44" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F44" s="0"/>
+      <c r="F44" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G44" s="0"/>
       <c r="H44" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I44" s="0"/>
     </row>
@@ -847,29 +895,31 @@
         <v>46009.0</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E46" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F46" s="0"/>
+      <c r="F46" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G46" s="0"/>
       <c r="H46" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I46" s="0"/>
     </row>
